--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28160" yWindow="600" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="-320" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.0 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -424,6 +424,46 @@
   <si>
     <t>李傲</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付实时稽核系统排除聚有财的判断</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年7月21日17:04:12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -681,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -872,6 +912,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -893,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,54 +1187,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,6 +1259,60 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1609,8 +1670,8 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1696,810 +1757,810 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="35" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="84">
         <v>42571</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="84">
         <v>42571</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="101" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="M2" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="100">
+      <c r="N2" s="84">
         <v>42571</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="104"/>
+      <c r="S2" s="88"/>
       <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:20" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105">
+      <c r="A3" s="89">
         <v>2</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="109">
+      <c r="F3" s="93">
         <v>42571</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="109">
+      <c r="H3" s="93">
         <v>42571</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="110" t="s">
+      <c r="I3" s="92"/>
+      <c r="J3" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="109">
+      <c r="N3" s="93">
         <v>42571</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="103" t="s">
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="112"/>
+      <c r="S3" s="96"/>
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="105">
+      <c r="A4" s="89">
         <v>3</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="109">
+      <c r="F4" s="93">
         <v>42571</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="93">
         <v>42571</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="93">
         <v>42571</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="103" t="s">
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="112"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A5" s="105">
+      <c r="A5" s="89">
         <v>4</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="109">
+      <c r="F5" s="93">
         <v>42571</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="93">
         <v>42571</v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108" t="s">
+      <c r="K5" s="92"/>
+      <c r="L5" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="93">
         <v>42571</v>
       </c>
-      <c r="O5" s="110" t="s">
+      <c r="O5" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="103" t="s">
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="112"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="105">
+      <c r="A6" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="93">
         <v>42571</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="93">
         <v>42571</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="110" t="s">
+      <c r="I6" s="92"/>
+      <c r="J6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="110" t="s">
+      <c r="M6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N6" s="93">
         <v>42571</v>
       </c>
-      <c r="O6" s="110" t="s">
+      <c r="O6" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="103" t="s">
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="112"/>
+      <c r="S6" s="96"/>
       <c r="T6" s="27"/>
     </row>
     <row r="7" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="105">
+      <c r="A7" s="89">
         <v>6</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="93">
         <v>42571</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="93">
         <v>42571</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="110" t="s">
+      <c r="I7" s="92"/>
+      <c r="J7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108" t="s">
+      <c r="K7" s="92"/>
+      <c r="L7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="93">
         <v>42571</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="103" t="s">
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="112"/>
+      <c r="S7" s="96"/>
       <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="105">
+      <c r="A8" s="89">
         <v>7</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="93">
         <v>42571</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="93">
         <v>42571</v>
       </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="110" t="s">
+      <c r="I8" s="92"/>
+      <c r="J8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108" t="s">
+      <c r="K8" s="92"/>
+      <c r="L8" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="110" t="s">
+      <c r="M8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="109">
+      <c r="N8" s="93">
         <v>42571</v>
       </c>
-      <c r="O8" s="110" t="s">
+      <c r="O8" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="103" t="s">
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="112"/>
+      <c r="S8" s="96"/>
       <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="105">
+      <c r="A9" s="89">
         <v>8</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="93">
         <v>42571</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="93">
         <v>42571</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="110" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108" t="s">
+      <c r="K9" s="92"/>
+      <c r="L9" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="109">
+      <c r="N9" s="93">
         <v>42571</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="103" t="s">
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="112"/>
+      <c r="S9" s="96"/>
       <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="105">
+      <c r="A10" s="89">
         <v>9</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="93">
         <v>42571</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="93">
         <v>42571</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="110" t="s">
+      <c r="I10" s="92"/>
+      <c r="J10" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108" t="s">
+      <c r="K10" s="92"/>
+      <c r="L10" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="110" t="s">
+      <c r="M10" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="109">
+      <c r="N10" s="93">
         <v>42571</v>
       </c>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="103" t="s">
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="112"/>
+      <c r="S10" s="96"/>
       <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="105">
+      <c r="A11" s="89">
         <v>10</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="93">
         <v>42571</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="93">
         <v>42571</v>
       </c>
-      <c r="I11" s="108"/>
-      <c r="J11" s="110" t="s">
+      <c r="I11" s="92"/>
+      <c r="J11" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108" t="s">
+      <c r="K11" s="92"/>
+      <c r="L11" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="110" t="s">
+      <c r="M11" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="109">
+      <c r="N11" s="93">
         <v>42571</v>
       </c>
-      <c r="O11" s="110" t="s">
+      <c r="O11" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="103" t="s">
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="112"/>
+      <c r="S11" s="96"/>
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="105">
+      <c r="A12" s="89">
         <v>11</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="93">
         <v>42571</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="93">
         <v>42571</v>
       </c>
-      <c r="I12" s="108"/>
-      <c r="J12" s="110" t="s">
+      <c r="I12" s="92"/>
+      <c r="J12" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108" t="s">
+      <c r="K12" s="92"/>
+      <c r="L12" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="110" t="s">
+      <c r="M12" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="93">
         <v>42571</v>
       </c>
-      <c r="O12" s="110" t="s">
+      <c r="O12" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="103" t="s">
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S12" s="112"/>
+      <c r="S12" s="96"/>
       <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105">
+      <c r="A13" s="89">
         <v>12</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="109">
+      <c r="F13" s="93">
         <v>42571</v>
       </c>
-      <c r="G13" s="109" t="s">
+      <c r="G13" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="109">
+      <c r="H13" s="93">
         <v>42571</v>
       </c>
-      <c r="I13" s="108"/>
-      <c r="J13" s="110" t="s">
+      <c r="I13" s="92"/>
+      <c r="J13" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108" t="s">
+      <c r="K13" s="92"/>
+      <c r="L13" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="110" t="s">
+      <c r="M13" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="109">
+      <c r="N13" s="93">
         <v>42571</v>
       </c>
-      <c r="O13" s="110" t="s">
+      <c r="O13" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="103" t="s">
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S13" s="112"/>
+      <c r="S13" s="96"/>
       <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="105">
+      <c r="A14" s="89">
         <v>13</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="108" t="s">
+      <c r="E14" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="93">
         <v>42571</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="93">
         <v>42571</v>
       </c>
-      <c r="I14" s="108"/>
-      <c r="J14" s="110" t="s">
+      <c r="I14" s="92"/>
+      <c r="J14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108" t="s">
+      <c r="K14" s="92"/>
+      <c r="L14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="110" t="s">
+      <c r="M14" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="109">
+      <c r="N14" s="93">
         <v>42571</v>
       </c>
-      <c r="O14" s="110" t="s">
+      <c r="O14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="103" t="s">
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S14" s="112"/>
+      <c r="S14" s="96"/>
       <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="105">
+      <c r="A15" s="89">
         <v>14</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="93">
         <v>42571</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="93">
         <v>42571</v>
       </c>
-      <c r="I15" s="108"/>
-      <c r="J15" s="110" t="s">
+      <c r="I15" s="92"/>
+      <c r="J15" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108" t="s">
+      <c r="K15" s="92"/>
+      <c r="L15" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="109">
+      <c r="N15" s="93">
         <v>42571</v>
       </c>
-      <c r="O15" s="110" t="s">
+      <c r="O15" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="103" t="s">
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="112"/>
+      <c r="S15" s="96"/>
       <c r="T15" s="34"/>
     </row>
     <row r="16" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="105">
+      <c r="A16" s="89">
         <v>15</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="93">
         <v>42571</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="93">
         <v>42571</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="110" t="s">
+      <c r="I16" s="92"/>
+      <c r="J16" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108" t="s">
+      <c r="K16" s="92"/>
+      <c r="L16" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="110" t="s">
+      <c r="M16" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="109">
+      <c r="N16" s="93">
         <v>42571</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="103" t="s">
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S16" s="112"/>
+      <c r="S16" s="96"/>
       <c r="T16" s="34"/>
     </row>
     <row r="17" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
+      <c r="A17" s="89">
         <v>16</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="93">
         <v>42571</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="93">
         <v>42571</v>
       </c>
-      <c r="I17" s="108"/>
-      <c r="J17" s="110" t="s">
+      <c r="I17" s="92"/>
+      <c r="J17" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108" t="s">
+      <c r="K17" s="92"/>
+      <c r="L17" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="110" t="s">
+      <c r="M17" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="109">
+      <c r="N17" s="93">
         <v>42571</v>
       </c>
-      <c r="O17" s="110" t="s">
+      <c r="O17" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="103" t="s">
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="S17" s="112"/>
+      <c r="S17" s="96"/>
       <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" s="105">
+      <c r="A18" s="89">
         <v>17</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="99" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="77" t="s">
@@ -2511,11 +2572,11 @@
       <c r="E18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116" t="s">
+      <c r="F18" s="100"/>
+      <c r="G18" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="116"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="22"/>
       <c r="J18" s="73" t="s">
         <v>96</v>
@@ -2529,23 +2590,23 @@
       <c r="M18" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="116">
+      <c r="N18" s="100">
         <v>42572</v>
       </c>
       <c r="O18" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P18" s="117"/>
+      <c r="P18" s="101"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="32"/>
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
     </row>
     <row r="19" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="105">
+      <c r="A19" s="89">
         <v>18</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="99" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -2557,11 +2618,11 @@
       <c r="E19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116" t="s">
+      <c r="F19" s="100"/>
+      <c r="G19" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="22"/>
       <c r="J19" s="73" t="s">
         <v>103</v>
@@ -2575,23 +2636,23 @@
       <c r="M19" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="116">
+      <c r="N19" s="100">
         <v>42572</v>
       </c>
       <c r="O19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="118"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="32"/>
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
     </row>
     <row r="20" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="105">
+      <c r="A20" s="89">
         <v>19</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="103" t="s">
         <v>105</v>
       </c>
       <c r="C20" s="77" t="s">
@@ -2603,11 +2664,11 @@
       <c r="E20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116" t="s">
+      <c r="F20" s="100"/>
+      <c r="G20" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="116"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="22"/>
       <c r="J20" s="73" t="s">
         <v>106</v>
@@ -2621,23 +2682,23 @@
       <c r="M20" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="116">
+      <c r="N20" s="100">
         <v>42572</v>
       </c>
       <c r="O20" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="118"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="32"/>
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
     </row>
     <row r="21" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A21" s="105">
+      <c r="A21" s="89">
         <v>20</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="103" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="77" t="s">
@@ -2649,11 +2710,11 @@
       <c r="E21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116" t="s">
+      <c r="F21" s="100"/>
+      <c r="G21" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="116"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="22"/>
       <c r="J21" s="73" t="s">
         <v>103</v>
@@ -2667,23 +2728,23 @@
       <c r="M21" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="116">
+      <c r="N21" s="100">
         <v>42572</v>
       </c>
       <c r="O21" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="P21" s="118"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="32"/>
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A22" s="105">
+      <c r="A22" s="89">
         <v>21</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="104" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="77" t="s">
@@ -2730,25 +2791,49 @@
       <c r="T22" s="34"/>
     </row>
     <row r="23" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="72"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33"/>
+      <c r="A23" s="121">
+        <v>22</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="100"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="34"/>
     </row>
     <row r="24" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
@@ -6683,36 +6768,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -6902,18 +6987,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
@@ -6960,8 +7045,8 @@
       <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="54"/>
       <c r="D4" s="70"/>
       <c r="E4" s="59"/>
@@ -6972,9 +7057,9 @@
       <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="60"/>
       <c r="E5" s="59"/>
       <c r="F5" s="55"/>
@@ -6984,9 +7069,9 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="60"/>
       <c r="E6" s="59"/>
       <c r="F6" s="55"/>
@@ -6996,8 +7081,8 @@
       <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="54"/>
       <c r="D7" s="60"/>
       <c r="E7" s="59"/>
@@ -7008,8 +7093,8 @@
       <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="54"/>
       <c r="D8" s="60"/>
       <c r="E8" s="59"/>
@@ -7032,8 +7117,8 @@
       <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="61"/>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -7044,8 +7129,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="61"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -7056,8 +7141,8 @@
       <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="54"/>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -7068,8 +7153,8 @@
       <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="54"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -7080,8 +7165,8 @@
       <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="54"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -7122,28 +7207,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:9" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="65" t="s">
@@ -8159,36 +8244,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">

--- a/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0.xlsx
+++ b/VersionRecords/Version 3.4.0/版本Bug和特性计划及评审表v3.4.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.4.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.4.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="-315" yWindow="465" windowWidth="25605" windowHeight="14565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.0 新特性|Fix Bug" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="134">
   <si>
     <t>No</t>
   </si>
@@ -463,6 +463,41 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nginx nginx.conf</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加nginx访问静态文件配置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图前后端分离，放置前端静态文件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体目录层次可以参考公测环境nginx环境配置</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1260,6 +1295,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,12 +1348,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1667,37 +1702,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="19" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="18" customWidth="1"/>
     <col min="4" max="4" width="27" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="18" customWidth="1"/>
-    <col min="11" max="12" width="11.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="18" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="18" customWidth="1"/>
     <col min="13" max="13" width="9" style="19"/>
     <col min="14" max="14" width="23" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" style="20" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="51.6640625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="20" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="51.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1891,7 @@
       <c r="S3" s="96"/>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="89">
         <v>3</v>
       </c>
@@ -1906,7 +1941,7 @@
       <c r="S4" s="96"/>
       <c r="T4" s="27"/>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="89">
         <v>4</v>
       </c>
@@ -1956,7 +1991,7 @@
       <c r="S5" s="96"/>
       <c r="T5" s="27"/>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="89">
         <v>5</v>
       </c>
@@ -2006,7 +2041,7 @@
       <c r="S6" s="96"/>
       <c r="T6" s="27"/>
     </row>
-    <row r="7" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="89">
         <v>6</v>
       </c>
@@ -2056,7 +2091,7 @@
       <c r="S7" s="96"/>
       <c r="T7" s="34"/>
     </row>
-    <row r="8" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="89">
         <v>7</v>
       </c>
@@ -2106,7 +2141,7 @@
       <c r="S8" s="96"/>
       <c r="T8" s="34"/>
     </row>
-    <row r="9" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="89">
         <v>8</v>
       </c>
@@ -2156,7 +2191,7 @@
       <c r="S9" s="96"/>
       <c r="T9" s="34"/>
     </row>
-    <row r="10" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="89">
         <v>9</v>
       </c>
@@ -2206,7 +2241,7 @@
       <c r="S10" s="96"/>
       <c r="T10" s="34"/>
     </row>
-    <row r="11" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="89">
         <v>10</v>
       </c>
@@ -2256,7 +2291,7 @@
       <c r="S11" s="96"/>
       <c r="T11" s="34"/>
     </row>
-    <row r="12" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="89">
         <v>11</v>
       </c>
@@ -2356,7 +2391,7 @@
       <c r="S13" s="96"/>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="89">
         <v>13</v>
       </c>
@@ -2406,7 +2441,7 @@
       <c r="S14" s="96"/>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="89">
         <v>14</v>
       </c>
@@ -2456,7 +2491,7 @@
       <c r="S15" s="96"/>
       <c r="T15" s="34"/>
     </row>
-    <row r="16" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="89">
         <v>15</v>
       </c>
@@ -2506,7 +2541,7 @@
       <c r="S16" s="96"/>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="1:20" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="89">
         <v>16</v>
       </c>
@@ -2556,7 +2591,7 @@
       <c r="S17" s="96"/>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="89">
         <v>17</v>
       </c>
@@ -2602,7 +2637,7 @@
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
     </row>
-    <row r="19" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="89">
         <v>18</v>
       </c>
@@ -2648,7 +2683,7 @@
       <c r="S19" s="33"/>
       <c r="T19" s="34"/>
     </row>
-    <row r="20" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="89">
         <v>19</v>
       </c>
@@ -2694,7 +2729,7 @@
       <c r="S20" s="33"/>
       <c r="T20" s="34"/>
     </row>
-    <row r="21" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="89">
         <v>20</v>
       </c>
@@ -2740,7 +2775,7 @@
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="89">
         <v>21</v>
       </c>
@@ -2790,8 +2825,8 @@
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="121">
+    <row r="23" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="105">
         <v>22</v>
       </c>
       <c r="B23" s="99" t="s">
@@ -2833,10 +2868,10 @@
       <c r="P23" s="101"/>
       <c r="Q23" s="101"/>
       <c r="R23" s="101"/>
-      <c r="S23" s="122"/>
+      <c r="S23" s="106"/>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="72"/>
       <c r="B24" s="50"/>
       <c r="C24" s="29"/>
@@ -2858,7 +2893,7 @@
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
     </row>
-    <row r="25" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="72"/>
       <c r="B25" s="50"/>
       <c r="C25" s="29"/>
@@ -2880,7 +2915,7 @@
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
     </row>
-    <row r="26" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
       <c r="B26" s="50"/>
       <c r="C26" s="29"/>
@@ -2902,7 +2937,7 @@
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
     </row>
-    <row r="27" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="72"/>
       <c r="B27" s="50"/>
       <c r="C27" s="29"/>
@@ -2924,7 +2959,7 @@
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
     </row>
-    <row r="28" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="72"/>
       <c r="B28" s="50"/>
       <c r="C28" s="29"/>
@@ -2946,7 +2981,7 @@
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
     </row>
-    <row r="29" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="72"/>
       <c r="B29" s="50"/>
       <c r="C29" s="29"/>
@@ -2968,7 +3003,7 @@
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
     </row>
-    <row r="30" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="72"/>
       <c r="B30" s="50"/>
       <c r="C30" s="77"/>
@@ -2990,7 +3025,7 @@
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
     </row>
-    <row r="31" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="72"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -3012,7 +3047,7 @@
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
     </row>
-    <row r="32" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="72"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -3034,7 +3069,7 @@
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
     </row>
-    <row r="33" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="72"/>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
@@ -3056,7 +3091,7 @@
       <c r="S33" s="33"/>
       <c r="T33" s="34"/>
     </row>
-    <row r="34" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="72"/>
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
@@ -3078,7 +3113,7 @@
       <c r="S34" s="33"/>
       <c r="T34" s="34"/>
     </row>
-    <row r="35" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="72"/>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -3100,7 +3135,7 @@
       <c r="S35" s="33"/>
       <c r="T35" s="34"/>
     </row>
-    <row r="36" spans="1:20" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="72"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
@@ -3122,7 +3157,7 @@
       <c r="S36" s="33"/>
       <c r="T36" s="34"/>
     </row>
-    <row r="37" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="23"/>
@@ -3143,7 +3178,7 @@
       <c r="R37" s="23"/>
       <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="23"/>
@@ -3164,7 +3199,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="23"/>
@@ -3185,7 +3220,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="23"/>
@@ -3206,7 +3241,7 @@
       <c r="R40" s="23"/>
       <c r="S40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="23"/>
@@ -3227,7 +3262,7 @@
       <c r="R41" s="23"/>
       <c r="S41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="23"/>
@@ -3248,7 +3283,7 @@
       <c r="R42" s="23"/>
       <c r="S42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="23"/>
@@ -3269,7 +3304,7 @@
       <c r="R43" s="23"/>
       <c r="S43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="23"/>
@@ -3290,7 +3325,7 @@
       <c r="R44" s="23"/>
       <c r="S44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="23"/>
@@ -3311,7 +3346,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="23"/>
@@ -3332,7 +3367,7 @@
       <c r="R46" s="23"/>
       <c r="S46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="23"/>
@@ -3353,7 +3388,7 @@
       <c r="R47" s="23"/>
       <c r="S47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="23"/>
@@ -3374,7 +3409,7 @@
       <c r="R48" s="23"/>
       <c r="S48" s="24"/>
     </row>
-    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="23"/>
@@ -3395,7 +3430,7 @@
       <c r="R49" s="23"/>
       <c r="S49" s="24"/>
     </row>
-    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="23"/>
@@ -3416,7 +3451,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="24"/>
     </row>
-    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="23"/>
@@ -3437,7 +3472,7 @@
       <c r="R51" s="23"/>
       <c r="S51" s="24"/>
     </row>
-    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="23"/>
@@ -3458,7 +3493,7 @@
       <c r="R52" s="23"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="23"/>
@@ -3479,7 +3514,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="24"/>
     </row>
-    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="23"/>
@@ -3500,7 +3535,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="24"/>
     </row>
-    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="23"/>
@@ -3521,7 +3556,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="24"/>
     </row>
-    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="23"/>
@@ -3542,7 +3577,7 @@
       <c r="R56" s="23"/>
       <c r="S56" s="24"/>
     </row>
-    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="23"/>
@@ -3563,7 +3598,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="24"/>
     </row>
-    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="23"/>
@@ -3584,7 +3619,7 @@
       <c r="R58" s="23"/>
       <c r="S58" s="24"/>
     </row>
-    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="23"/>
@@ -3605,7 +3640,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="23"/>
@@ -3626,7 +3661,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="23"/>
@@ -3647,7 +3682,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="24"/>
     </row>
-    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="23"/>
@@ -3668,7 +3703,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="24"/>
     </row>
-    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="23"/>
@@ -3689,7 +3724,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="23"/>
@@ -3710,7 +3745,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="23"/>
@@ -3731,7 +3766,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="23"/>
@@ -3752,7 +3787,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="23"/>
@@ -3773,7 +3808,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="23"/>
@@ -3794,7 +3829,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="23"/>
@@ -3815,7 +3850,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="23"/>
@@ -3836,7 +3871,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="23"/>
@@ -3857,7 +3892,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="23"/>
@@ -3878,7 +3913,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="23"/>
@@ -3899,7 +3934,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="23"/>
@@ -3920,7 +3955,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="23"/>
@@ -3941,7 +3976,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="23"/>
@@ -3962,7 +3997,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="23"/>
@@ -3983,7 +4018,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="23"/>
@@ -4004,7 +4039,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -5924,882 +5959,882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:AB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="63.33203125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="63.375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -6840,7 +6875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6855,7 +6890,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -6870,7 +6905,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -6885,7 +6920,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -6900,7 +6935,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6915,7 +6950,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6930,7 +6965,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6965,42 +7000,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="63" customWidth="1"/>
-    <col min="10" max="10" width="53.6640625" style="64" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="63"/>
+    <col min="1" max="1" width="10.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="63" customWidth="1"/>
+    <col min="5" max="5" width="50.625" style="63" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="63" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="53.625" style="64" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
         <v>46</v>
       </c>
@@ -7032,7 +7067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="62"/>
       <c r="B3" s="53"/>
       <c r="C3" s="54"/>
@@ -7044,9 +7079,9 @@
       <c r="I3" s="57"/>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="54"/>
       <c r="D4" s="70"/>
       <c r="E4" s="59"/>
@@ -7056,10 +7091,10 @@
       <c r="I4" s="57"/>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="110"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="112"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="60"/>
       <c r="E5" s="59"/>
       <c r="F5" s="55"/>
@@ -7068,10 +7103,10 @@
       <c r="I5" s="57"/>
       <c r="J5" s="60"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="110"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="116"/>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="112"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="60"/>
       <c r="E6" s="59"/>
       <c r="F6" s="55"/>
@@ -7080,9 +7115,9 @@
       <c r="I6" s="57"/>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="110"/>
-      <c r="B7" s="115"/>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="112"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="54"/>
       <c r="D7" s="60"/>
       <c r="E7" s="59"/>
@@ -7092,9 +7127,9 @@
       <c r="I7" s="57"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="110"/>
-      <c r="B8" s="115"/>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="112"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="54"/>
       <c r="D8" s="60"/>
       <c r="E8" s="59"/>
@@ -7116,9 +7151,9 @@
       <c r="I9" s="57"/>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="61"/>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -7129,8 +7164,8 @@
       <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="61"/>
       <c r="D11" s="60"/>
       <c r="E11" s="60"/>
@@ -7141,8 +7176,8 @@
       <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="54"/>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -7152,9 +7187,9 @@
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="54"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -7164,9 +7199,9 @@
       <c r="I13" s="55"/>
       <c r="J13" s="60"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="111"/>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="111"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="54"/>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -7193,44 +7228,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="120"/>
-    </row>
-    <row r="3" spans="1:9" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+    </row>
+    <row r="3" spans="1:9" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="65" t="s">
         <v>32</v>
       </c>
@@ -7400,882 +7435,882 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="76" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="76" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="46" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="257" max="257" width="3.83203125" customWidth="1"/>
-    <col min="258" max="258" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
     <col min="259" max="259" width="7" customWidth="1"/>
-    <col min="260" max="260" width="12.1640625" customWidth="1"/>
+    <col min="260" max="260" width="12.125" customWidth="1"/>
     <col min="261" max="261" width="21" customWidth="1"/>
-    <col min="262" max="262" width="9.1640625" customWidth="1"/>
-    <col min="263" max="263" width="82.1640625" customWidth="1"/>
-    <col min="264" max="264" width="25.6640625" customWidth="1"/>
-    <col min="265" max="265" width="13.6640625" customWidth="1"/>
-    <col min="266" max="266" width="9.83203125" customWidth="1"/>
-    <col min="267" max="267" width="10.1640625" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.125" customWidth="1"/>
+    <col min="264" max="264" width="25.625" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
     <col min="268" max="268" width="9" customWidth="1"/>
-    <col min="269" max="269" width="17.6640625" customWidth="1"/>
-    <col min="513" max="513" width="3.83203125" customWidth="1"/>
-    <col min="514" max="514" width="10.1640625" customWidth="1"/>
+    <col min="269" max="269" width="17.625" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
     <col min="515" max="515" width="7" customWidth="1"/>
-    <col min="516" max="516" width="12.1640625" customWidth="1"/>
+    <col min="516" max="516" width="12.125" customWidth="1"/>
     <col min="517" max="517" width="21" customWidth="1"/>
-    <col min="518" max="518" width="9.1640625" customWidth="1"/>
-    <col min="519" max="519" width="82.1640625" customWidth="1"/>
-    <col min="520" max="520" width="25.6640625" customWidth="1"/>
-    <col min="521" max="521" width="13.6640625" customWidth="1"/>
-    <col min="522" max="522" width="9.83203125" customWidth="1"/>
-    <col min="523" max="523" width="10.1640625" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.125" customWidth="1"/>
+    <col min="520" max="520" width="25.625" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
     <col min="524" max="524" width="9" customWidth="1"/>
-    <col min="525" max="525" width="17.6640625" customWidth="1"/>
-    <col min="769" max="769" width="3.83203125" customWidth="1"/>
-    <col min="770" max="770" width="10.1640625" customWidth="1"/>
+    <col min="525" max="525" width="17.625" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
     <col min="771" max="771" width="7" customWidth="1"/>
-    <col min="772" max="772" width="12.1640625" customWidth="1"/>
+    <col min="772" max="772" width="12.125" customWidth="1"/>
     <col min="773" max="773" width="21" customWidth="1"/>
-    <col min="774" max="774" width="9.1640625" customWidth="1"/>
-    <col min="775" max="775" width="82.1640625" customWidth="1"/>
-    <col min="776" max="776" width="25.6640625" customWidth="1"/>
-    <col min="777" max="777" width="13.6640625" customWidth="1"/>
-    <col min="778" max="778" width="9.83203125" customWidth="1"/>
-    <col min="779" max="779" width="10.1640625" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.125" customWidth="1"/>
+    <col min="776" max="776" width="25.625" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
     <col min="780" max="780" width="9" customWidth="1"/>
-    <col min="781" max="781" width="17.6640625" customWidth="1"/>
-    <col min="1025" max="1025" width="3.83203125" customWidth="1"/>
-    <col min="1026" max="1026" width="10.1640625" customWidth="1"/>
+    <col min="781" max="781" width="17.625" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
     <col min="1027" max="1027" width="7" customWidth="1"/>
-    <col min="1028" max="1028" width="12.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" customWidth="1"/>
     <col min="1029" max="1029" width="21" customWidth="1"/>
-    <col min="1030" max="1030" width="9.1640625" customWidth="1"/>
-    <col min="1031" max="1031" width="82.1640625" customWidth="1"/>
-    <col min="1032" max="1032" width="25.6640625" customWidth="1"/>
-    <col min="1033" max="1033" width="13.6640625" customWidth="1"/>
-    <col min="1034" max="1034" width="9.83203125" customWidth="1"/>
-    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.125" customWidth="1"/>
+    <col min="1032" max="1032" width="25.625" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
     <col min="1036" max="1036" width="9" customWidth="1"/>
-    <col min="1037" max="1037" width="17.6640625" customWidth="1"/>
-    <col min="1281" max="1281" width="3.83203125" customWidth="1"/>
-    <col min="1282" max="1282" width="10.1640625" customWidth="1"/>
+    <col min="1037" max="1037" width="17.625" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
     <col min="1283" max="1283" width="7" customWidth="1"/>
-    <col min="1284" max="1284" width="12.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" customWidth="1"/>
     <col min="1285" max="1285" width="21" customWidth="1"/>
-    <col min="1286" max="1286" width="9.1640625" customWidth="1"/>
-    <col min="1287" max="1287" width="82.1640625" customWidth="1"/>
-    <col min="1288" max="1288" width="25.6640625" customWidth="1"/>
-    <col min="1289" max="1289" width="13.6640625" customWidth="1"/>
-    <col min="1290" max="1290" width="9.83203125" customWidth="1"/>
-    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.125" customWidth="1"/>
+    <col min="1288" max="1288" width="25.625" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
     <col min="1292" max="1292" width="9" customWidth="1"/>
-    <col min="1293" max="1293" width="17.6640625" customWidth="1"/>
-    <col min="1537" max="1537" width="3.83203125" customWidth="1"/>
-    <col min="1538" max="1538" width="10.1640625" customWidth="1"/>
+    <col min="1293" max="1293" width="17.625" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
     <col min="1539" max="1539" width="7" customWidth="1"/>
-    <col min="1540" max="1540" width="12.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" customWidth="1"/>
     <col min="1541" max="1541" width="21" customWidth="1"/>
-    <col min="1542" max="1542" width="9.1640625" customWidth="1"/>
-    <col min="1543" max="1543" width="82.1640625" customWidth="1"/>
-    <col min="1544" max="1544" width="25.6640625" customWidth="1"/>
-    <col min="1545" max="1545" width="13.6640625" customWidth="1"/>
-    <col min="1546" max="1546" width="9.83203125" customWidth="1"/>
-    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.125" customWidth="1"/>
+    <col min="1544" max="1544" width="25.625" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
     <col min="1548" max="1548" width="9" customWidth="1"/>
-    <col min="1549" max="1549" width="17.6640625" customWidth="1"/>
-    <col min="1793" max="1793" width="3.83203125" customWidth="1"/>
-    <col min="1794" max="1794" width="10.1640625" customWidth="1"/>
+    <col min="1549" max="1549" width="17.625" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
     <col min="1795" max="1795" width="7" customWidth="1"/>
-    <col min="1796" max="1796" width="12.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" customWidth="1"/>
     <col min="1797" max="1797" width="21" customWidth="1"/>
-    <col min="1798" max="1798" width="9.1640625" customWidth="1"/>
-    <col min="1799" max="1799" width="82.1640625" customWidth="1"/>
-    <col min="1800" max="1800" width="25.6640625" customWidth="1"/>
-    <col min="1801" max="1801" width="13.6640625" customWidth="1"/>
-    <col min="1802" max="1802" width="9.83203125" customWidth="1"/>
-    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.125" customWidth="1"/>
+    <col min="1800" max="1800" width="25.625" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
     <col min="1804" max="1804" width="9" customWidth="1"/>
-    <col min="1805" max="1805" width="17.6640625" customWidth="1"/>
-    <col min="2049" max="2049" width="3.83203125" customWidth="1"/>
-    <col min="2050" max="2050" width="10.1640625" customWidth="1"/>
+    <col min="1805" max="1805" width="17.625" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
     <col min="2051" max="2051" width="7" customWidth="1"/>
-    <col min="2052" max="2052" width="12.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" customWidth="1"/>
     <col min="2053" max="2053" width="21" customWidth="1"/>
-    <col min="2054" max="2054" width="9.1640625" customWidth="1"/>
-    <col min="2055" max="2055" width="82.1640625" customWidth="1"/>
-    <col min="2056" max="2056" width="25.6640625" customWidth="1"/>
-    <col min="2057" max="2057" width="13.6640625" customWidth="1"/>
-    <col min="2058" max="2058" width="9.83203125" customWidth="1"/>
-    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.125" customWidth="1"/>
+    <col min="2056" max="2056" width="25.625" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
     <col min="2060" max="2060" width="9" customWidth="1"/>
-    <col min="2061" max="2061" width="17.6640625" customWidth="1"/>
-    <col min="2305" max="2305" width="3.83203125" customWidth="1"/>
-    <col min="2306" max="2306" width="10.1640625" customWidth="1"/>
+    <col min="2061" max="2061" width="17.625" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
     <col min="2307" max="2307" width="7" customWidth="1"/>
-    <col min="2308" max="2308" width="12.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" customWidth="1"/>
     <col min="2309" max="2309" width="21" customWidth="1"/>
-    <col min="2310" max="2310" width="9.1640625" customWidth="1"/>
-    <col min="2311" max="2311" width="82.1640625" customWidth="1"/>
-    <col min="2312" max="2312" width="25.6640625" customWidth="1"/>
-    <col min="2313" max="2313" width="13.6640625" customWidth="1"/>
-    <col min="2314" max="2314" width="9.83203125" customWidth="1"/>
-    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.125" customWidth="1"/>
+    <col min="2312" max="2312" width="25.625" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
     <col min="2316" max="2316" width="9" customWidth="1"/>
-    <col min="2317" max="2317" width="17.6640625" customWidth="1"/>
-    <col min="2561" max="2561" width="3.83203125" customWidth="1"/>
-    <col min="2562" max="2562" width="10.1640625" customWidth="1"/>
+    <col min="2317" max="2317" width="17.625" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
     <col min="2563" max="2563" width="7" customWidth="1"/>
-    <col min="2564" max="2564" width="12.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" customWidth="1"/>
     <col min="2565" max="2565" width="21" customWidth="1"/>
-    <col min="2566" max="2566" width="9.1640625" customWidth="1"/>
-    <col min="2567" max="2567" width="82.1640625" customWidth="1"/>
-    <col min="2568" max="2568" width="25.6640625" customWidth="1"/>
-    <col min="2569" max="2569" width="13.6640625" customWidth="1"/>
-    <col min="2570" max="2570" width="9.83203125" customWidth="1"/>
-    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.125" customWidth="1"/>
+    <col min="2568" max="2568" width="25.625" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
     <col min="2572" max="2572" width="9" customWidth="1"/>
-    <col min="2573" max="2573" width="17.6640625" customWidth="1"/>
-    <col min="2817" max="2817" width="3.83203125" customWidth="1"/>
-    <col min="2818" max="2818" width="10.1640625" customWidth="1"/>
+    <col min="2573" max="2573" width="17.625" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
     <col min="2819" max="2819" width="7" customWidth="1"/>
-    <col min="2820" max="2820" width="12.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" customWidth="1"/>
     <col min="2821" max="2821" width="21" customWidth="1"/>
-    <col min="2822" max="2822" width="9.1640625" customWidth="1"/>
-    <col min="2823" max="2823" width="82.1640625" customWidth="1"/>
-    <col min="2824" max="2824" width="25.6640625" customWidth="1"/>
-    <col min="2825" max="2825" width="13.6640625" customWidth="1"/>
-    <col min="2826" max="2826" width="9.83203125" customWidth="1"/>
-    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.125" customWidth="1"/>
+    <col min="2824" max="2824" width="25.625" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
     <col min="2828" max="2828" width="9" customWidth="1"/>
-    <col min="2829" max="2829" width="17.6640625" customWidth="1"/>
-    <col min="3073" max="3073" width="3.83203125" customWidth="1"/>
-    <col min="3074" max="3074" width="10.1640625" customWidth="1"/>
+    <col min="2829" max="2829" width="17.625" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
     <col min="3075" max="3075" width="7" customWidth="1"/>
-    <col min="3076" max="3076" width="12.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" customWidth="1"/>
     <col min="3077" max="3077" width="21" customWidth="1"/>
-    <col min="3078" max="3078" width="9.1640625" customWidth="1"/>
-    <col min="3079" max="3079" width="82.1640625" customWidth="1"/>
-    <col min="3080" max="3080" width="25.6640625" customWidth="1"/>
-    <col min="3081" max="3081" width="13.6640625" customWidth="1"/>
-    <col min="3082" max="3082" width="9.83203125" customWidth="1"/>
-    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.125" customWidth="1"/>
+    <col min="3080" max="3080" width="25.625" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
     <col min="3084" max="3084" width="9" customWidth="1"/>
-    <col min="3085" max="3085" width="17.6640625" customWidth="1"/>
-    <col min="3329" max="3329" width="3.83203125" customWidth="1"/>
-    <col min="3330" max="3330" width="10.1640625" customWidth="1"/>
+    <col min="3085" max="3085" width="17.625" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
     <col min="3331" max="3331" width="7" customWidth="1"/>
-    <col min="3332" max="3332" width="12.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" customWidth="1"/>
     <col min="3333" max="3333" width="21" customWidth="1"/>
-    <col min="3334" max="3334" width="9.1640625" customWidth="1"/>
-    <col min="3335" max="3335" width="82.1640625" customWidth="1"/>
-    <col min="3336" max="3336" width="25.6640625" customWidth="1"/>
-    <col min="3337" max="3337" width="13.6640625" customWidth="1"/>
-    <col min="3338" max="3338" width="9.83203125" customWidth="1"/>
-    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.125" customWidth="1"/>
+    <col min="3336" max="3336" width="25.625" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
     <col min="3340" max="3340" width="9" customWidth="1"/>
-    <col min="3341" max="3341" width="17.6640625" customWidth="1"/>
-    <col min="3585" max="3585" width="3.83203125" customWidth="1"/>
-    <col min="3586" max="3586" width="10.1640625" customWidth="1"/>
+    <col min="3341" max="3341" width="17.625" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
     <col min="3587" max="3587" width="7" customWidth="1"/>
-    <col min="3588" max="3588" width="12.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" customWidth="1"/>
     <col min="3589" max="3589" width="21" customWidth="1"/>
-    <col min="3590" max="3590" width="9.1640625" customWidth="1"/>
-    <col min="3591" max="3591" width="82.1640625" customWidth="1"/>
-    <col min="3592" max="3592" width="25.6640625" customWidth="1"/>
-    <col min="3593" max="3593" width="13.6640625" customWidth="1"/>
-    <col min="3594" max="3594" width="9.83203125" customWidth="1"/>
-    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.125" customWidth="1"/>
+    <col min="3592" max="3592" width="25.625" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
     <col min="3596" max="3596" width="9" customWidth="1"/>
-    <col min="3597" max="3597" width="17.6640625" customWidth="1"/>
-    <col min="3841" max="3841" width="3.83203125" customWidth="1"/>
-    <col min="3842" max="3842" width="10.1640625" customWidth="1"/>
+    <col min="3597" max="3597" width="17.625" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
     <col min="3843" max="3843" width="7" customWidth="1"/>
-    <col min="3844" max="3844" width="12.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" customWidth="1"/>
     <col min="3845" max="3845" width="21" customWidth="1"/>
-    <col min="3846" max="3846" width="9.1640625" customWidth="1"/>
-    <col min="3847" max="3847" width="82.1640625" customWidth="1"/>
-    <col min="3848" max="3848" width="25.6640625" customWidth="1"/>
-    <col min="3849" max="3849" width="13.6640625" customWidth="1"/>
-    <col min="3850" max="3850" width="9.83203125" customWidth="1"/>
-    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.125" customWidth="1"/>
+    <col min="3848" max="3848" width="25.625" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
     <col min="3852" max="3852" width="9" customWidth="1"/>
-    <col min="3853" max="3853" width="17.6640625" customWidth="1"/>
-    <col min="4097" max="4097" width="3.83203125" customWidth="1"/>
-    <col min="4098" max="4098" width="10.1640625" customWidth="1"/>
+    <col min="3853" max="3853" width="17.625" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
     <col min="4099" max="4099" width="7" customWidth="1"/>
-    <col min="4100" max="4100" width="12.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" customWidth="1"/>
     <col min="4101" max="4101" width="21" customWidth="1"/>
-    <col min="4102" max="4102" width="9.1640625" customWidth="1"/>
-    <col min="4103" max="4103" width="82.1640625" customWidth="1"/>
-    <col min="4104" max="4104" width="25.6640625" customWidth="1"/>
-    <col min="4105" max="4105" width="13.6640625" customWidth="1"/>
-    <col min="4106" max="4106" width="9.83203125" customWidth="1"/>
-    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.125" customWidth="1"/>
+    <col min="4104" max="4104" width="25.625" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
     <col min="4108" max="4108" width="9" customWidth="1"/>
-    <col min="4109" max="4109" width="17.6640625" customWidth="1"/>
-    <col min="4353" max="4353" width="3.83203125" customWidth="1"/>
-    <col min="4354" max="4354" width="10.1640625" customWidth="1"/>
+    <col min="4109" max="4109" width="17.625" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
     <col min="4355" max="4355" width="7" customWidth="1"/>
-    <col min="4356" max="4356" width="12.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" customWidth="1"/>
     <col min="4357" max="4357" width="21" customWidth="1"/>
-    <col min="4358" max="4358" width="9.1640625" customWidth="1"/>
-    <col min="4359" max="4359" width="82.1640625" customWidth="1"/>
-    <col min="4360" max="4360" width="25.6640625" customWidth="1"/>
-    <col min="4361" max="4361" width="13.6640625" customWidth="1"/>
-    <col min="4362" max="4362" width="9.83203125" customWidth="1"/>
-    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.125" customWidth="1"/>
+    <col min="4360" max="4360" width="25.625" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
     <col min="4364" max="4364" width="9" customWidth="1"/>
-    <col min="4365" max="4365" width="17.6640625" customWidth="1"/>
-    <col min="4609" max="4609" width="3.83203125" customWidth="1"/>
-    <col min="4610" max="4610" width="10.1640625" customWidth="1"/>
+    <col min="4365" max="4365" width="17.625" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
     <col min="4611" max="4611" width="7" customWidth="1"/>
-    <col min="4612" max="4612" width="12.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" customWidth="1"/>
     <col min="4613" max="4613" width="21" customWidth="1"/>
-    <col min="4614" max="4614" width="9.1640625" customWidth="1"/>
-    <col min="4615" max="4615" width="82.1640625" customWidth="1"/>
-    <col min="4616" max="4616" width="25.6640625" customWidth="1"/>
-    <col min="4617" max="4617" width="13.6640625" customWidth="1"/>
-    <col min="4618" max="4618" width="9.83203125" customWidth="1"/>
-    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.125" customWidth="1"/>
+    <col min="4616" max="4616" width="25.625" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
     <col min="4620" max="4620" width="9" customWidth="1"/>
-    <col min="4621" max="4621" width="17.6640625" customWidth="1"/>
-    <col min="4865" max="4865" width="3.83203125" customWidth="1"/>
-    <col min="4866" max="4866" width="10.1640625" customWidth="1"/>
+    <col min="4621" max="4621" width="17.625" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
     <col min="4867" max="4867" width="7" customWidth="1"/>
-    <col min="4868" max="4868" width="12.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" customWidth="1"/>
     <col min="4869" max="4869" width="21" customWidth="1"/>
-    <col min="4870" max="4870" width="9.1640625" customWidth="1"/>
-    <col min="4871" max="4871" width="82.1640625" customWidth="1"/>
-    <col min="4872" max="4872" width="25.6640625" customWidth="1"/>
-    <col min="4873" max="4873" width="13.6640625" customWidth="1"/>
-    <col min="4874" max="4874" width="9.83203125" customWidth="1"/>
-    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.125" customWidth="1"/>
+    <col min="4872" max="4872" width="25.625" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
     <col min="4876" max="4876" width="9" customWidth="1"/>
-    <col min="4877" max="4877" width="17.6640625" customWidth="1"/>
-    <col min="5121" max="5121" width="3.83203125" customWidth="1"/>
-    <col min="5122" max="5122" width="10.1640625" customWidth="1"/>
+    <col min="4877" max="4877" width="17.625" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
     <col min="5123" max="5123" width="7" customWidth="1"/>
-    <col min="5124" max="5124" width="12.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" customWidth="1"/>
     <col min="5125" max="5125" width="21" customWidth="1"/>
-    <col min="5126" max="5126" width="9.1640625" customWidth="1"/>
-    <col min="5127" max="5127" width="82.1640625" customWidth="1"/>
-    <col min="5128" max="5128" width="25.6640625" customWidth="1"/>
-    <col min="5129" max="5129" width="13.6640625" customWidth="1"/>
-    <col min="5130" max="5130" width="9.83203125" customWidth="1"/>
-    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.125" customWidth="1"/>
+    <col min="5128" max="5128" width="25.625" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
     <col min="5132" max="5132" width="9" customWidth="1"/>
-    <col min="5133" max="5133" width="17.6640625" customWidth="1"/>
-    <col min="5377" max="5377" width="3.83203125" customWidth="1"/>
-    <col min="5378" max="5378" width="10.1640625" customWidth="1"/>
+    <col min="5133" max="5133" width="17.625" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
     <col min="5379" max="5379" width="7" customWidth="1"/>
-    <col min="5380" max="5380" width="12.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" customWidth="1"/>
     <col min="5381" max="5381" width="21" customWidth="1"/>
-    <col min="5382" max="5382" width="9.1640625" customWidth="1"/>
-    <col min="5383" max="5383" width="82.1640625" customWidth="1"/>
-    <col min="5384" max="5384" width="25.6640625" customWidth="1"/>
-    <col min="5385" max="5385" width="13.6640625" customWidth="1"/>
-    <col min="5386" max="5386" width="9.83203125" customWidth="1"/>
-    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.125" customWidth="1"/>
+    <col min="5384" max="5384" width="25.625" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
     <col min="5388" max="5388" width="9" customWidth="1"/>
-    <col min="5389" max="5389" width="17.6640625" customWidth="1"/>
-    <col min="5633" max="5633" width="3.83203125" customWidth="1"/>
-    <col min="5634" max="5634" width="10.1640625" customWidth="1"/>
+    <col min="5389" max="5389" width="17.625" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
     <col min="5635" max="5635" width="7" customWidth="1"/>
-    <col min="5636" max="5636" width="12.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" customWidth="1"/>
     <col min="5637" max="5637" width="21" customWidth="1"/>
-    <col min="5638" max="5638" width="9.1640625" customWidth="1"/>
-    <col min="5639" max="5639" width="82.1640625" customWidth="1"/>
-    <col min="5640" max="5640" width="25.6640625" customWidth="1"/>
-    <col min="5641" max="5641" width="13.6640625" customWidth="1"/>
-    <col min="5642" max="5642" width="9.83203125" customWidth="1"/>
-    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.125" customWidth="1"/>
+    <col min="5640" max="5640" width="25.625" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
     <col min="5644" max="5644" width="9" customWidth="1"/>
-    <col min="5645" max="5645" width="17.6640625" customWidth="1"/>
-    <col min="5889" max="5889" width="3.83203125" customWidth="1"/>
-    <col min="5890" max="5890" width="10.1640625" customWidth="1"/>
+    <col min="5645" max="5645" width="17.625" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
     <col min="5891" max="5891" width="7" customWidth="1"/>
-    <col min="5892" max="5892" width="12.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" customWidth="1"/>
     <col min="5893" max="5893" width="21" customWidth="1"/>
-    <col min="5894" max="5894" width="9.1640625" customWidth="1"/>
-    <col min="5895" max="5895" width="82.1640625" customWidth="1"/>
-    <col min="5896" max="5896" width="25.6640625" customWidth="1"/>
-    <col min="5897" max="5897" width="13.6640625" customWidth="1"/>
-    <col min="5898" max="5898" width="9.83203125" customWidth="1"/>
-    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.125" customWidth="1"/>
+    <col min="5896" max="5896" width="25.625" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
     <col min="5900" max="5900" width="9" customWidth="1"/>
-    <col min="5901" max="5901" width="17.6640625" customWidth="1"/>
-    <col min="6145" max="6145" width="3.83203125" customWidth="1"/>
-    <col min="6146" max="6146" width="10.1640625" customWidth="1"/>
+    <col min="5901" max="5901" width="17.625" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
     <col min="6147" max="6147" width="7" customWidth="1"/>
-    <col min="6148" max="6148" width="12.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" customWidth="1"/>
     <col min="6149" max="6149" width="21" customWidth="1"/>
-    <col min="6150" max="6150" width="9.1640625" customWidth="1"/>
-    <col min="6151" max="6151" width="82.1640625" customWidth="1"/>
-    <col min="6152" max="6152" width="25.6640625" customWidth="1"/>
-    <col min="6153" max="6153" width="13.6640625" customWidth="1"/>
-    <col min="6154" max="6154" width="9.83203125" customWidth="1"/>
-    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.125" customWidth="1"/>
+    <col min="6152" max="6152" width="25.625" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
     <col min="6156" max="6156" width="9" customWidth="1"/>
-    <col min="6157" max="6157" width="17.6640625" customWidth="1"/>
-    <col min="6401" max="6401" width="3.83203125" customWidth="1"/>
-    <col min="6402" max="6402" width="10.1640625" customWidth="1"/>
+    <col min="6157" max="6157" width="17.625" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
     <col min="6403" max="6403" width="7" customWidth="1"/>
-    <col min="6404" max="6404" width="12.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" customWidth="1"/>
     <col min="6405" max="6405" width="21" customWidth="1"/>
-    <col min="6406" max="6406" width="9.1640625" customWidth="1"/>
-    <col min="6407" max="6407" width="82.1640625" customWidth="1"/>
-    <col min="6408" max="6408" width="25.6640625" customWidth="1"/>
-    <col min="6409" max="6409" width="13.6640625" customWidth="1"/>
-    <col min="6410" max="6410" width="9.83203125" customWidth="1"/>
-    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.125" customWidth="1"/>
+    <col min="6408" max="6408" width="25.625" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
     <col min="6412" max="6412" width="9" customWidth="1"/>
-    <col min="6413" max="6413" width="17.6640625" customWidth="1"/>
-    <col min="6657" max="6657" width="3.83203125" customWidth="1"/>
-    <col min="6658" max="6658" width="10.1640625" customWidth="1"/>
+    <col min="6413" max="6413" width="17.625" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
     <col min="6659" max="6659" width="7" customWidth="1"/>
-    <col min="6660" max="6660" width="12.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" customWidth="1"/>
     <col min="6661" max="6661" width="21" customWidth="1"/>
-    <col min="6662" max="6662" width="9.1640625" customWidth="1"/>
-    <col min="6663" max="6663" width="82.1640625" customWidth="1"/>
-    <col min="6664" max="6664" width="25.6640625" customWidth="1"/>
-    <col min="6665" max="6665" width="13.6640625" customWidth="1"/>
-    <col min="6666" max="6666" width="9.83203125" customWidth="1"/>
-    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.125" customWidth="1"/>
+    <col min="6664" max="6664" width="25.625" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
     <col min="6668" max="6668" width="9" customWidth="1"/>
-    <col min="6669" max="6669" width="17.6640625" customWidth="1"/>
-    <col min="6913" max="6913" width="3.83203125" customWidth="1"/>
-    <col min="6914" max="6914" width="10.1640625" customWidth="1"/>
+    <col min="6669" max="6669" width="17.625" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
     <col min="6915" max="6915" width="7" customWidth="1"/>
-    <col min="6916" max="6916" width="12.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" customWidth="1"/>
     <col min="6917" max="6917" width="21" customWidth="1"/>
-    <col min="6918" max="6918" width="9.1640625" customWidth="1"/>
-    <col min="6919" max="6919" width="82.1640625" customWidth="1"/>
-    <col min="6920" max="6920" width="25.6640625" customWidth="1"/>
-    <col min="6921" max="6921" width="13.6640625" customWidth="1"/>
-    <col min="6922" max="6922" width="9.83203125" customWidth="1"/>
-    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.125" customWidth="1"/>
+    <col min="6920" max="6920" width="25.625" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
     <col min="6924" max="6924" width="9" customWidth="1"/>
-    <col min="6925" max="6925" width="17.6640625" customWidth="1"/>
-    <col min="7169" max="7169" width="3.83203125" customWidth="1"/>
-    <col min="7170" max="7170" width="10.1640625" customWidth="1"/>
+    <col min="6925" max="6925" width="17.625" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
     <col min="7171" max="7171" width="7" customWidth="1"/>
-    <col min="7172" max="7172" width="12.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" customWidth="1"/>
     <col min="7173" max="7173" width="21" customWidth="1"/>
-    <col min="7174" max="7174" width="9.1640625" customWidth="1"/>
-    <col min="7175" max="7175" width="82.1640625" customWidth="1"/>
-    <col min="7176" max="7176" width="25.6640625" customWidth="1"/>
-    <col min="7177" max="7177" width="13.6640625" customWidth="1"/>
-    <col min="7178" max="7178" width="9.83203125" customWidth="1"/>
-    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.125" customWidth="1"/>
+    <col min="7176" max="7176" width="25.625" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
     <col min="7180" max="7180" width="9" customWidth="1"/>
-    <col min="7181" max="7181" width="17.6640625" customWidth="1"/>
-    <col min="7425" max="7425" width="3.83203125" customWidth="1"/>
-    <col min="7426" max="7426" width="10.1640625" customWidth="1"/>
+    <col min="7181" max="7181" width="17.625" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
     <col min="7427" max="7427" width="7" customWidth="1"/>
-    <col min="7428" max="7428" width="12.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" customWidth="1"/>
     <col min="7429" max="7429" width="21" customWidth="1"/>
-    <col min="7430" max="7430" width="9.1640625" customWidth="1"/>
-    <col min="7431" max="7431" width="82.1640625" customWidth="1"/>
-    <col min="7432" max="7432" width="25.6640625" customWidth="1"/>
-    <col min="7433" max="7433" width="13.6640625" customWidth="1"/>
-    <col min="7434" max="7434" width="9.83203125" customWidth="1"/>
-    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.125" customWidth="1"/>
+    <col min="7432" max="7432" width="25.625" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
     <col min="7436" max="7436" width="9" customWidth="1"/>
-    <col min="7437" max="7437" width="17.6640625" customWidth="1"/>
-    <col min="7681" max="7681" width="3.83203125" customWidth="1"/>
-    <col min="7682" max="7682" width="10.1640625" customWidth="1"/>
+    <col min="7437" max="7437" width="17.625" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
     <col min="7683" max="7683" width="7" customWidth="1"/>
-    <col min="7684" max="7684" width="12.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" customWidth="1"/>
     <col min="7685" max="7685" width="21" customWidth="1"/>
-    <col min="7686" max="7686" width="9.1640625" customWidth="1"/>
-    <col min="7687" max="7687" width="82.1640625" customWidth="1"/>
-    <col min="7688" max="7688" width="25.6640625" customWidth="1"/>
-    <col min="7689" max="7689" width="13.6640625" customWidth="1"/>
-    <col min="7690" max="7690" width="9.83203125" customWidth="1"/>
-    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.125" customWidth="1"/>
+    <col min="7688" max="7688" width="25.625" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
     <col min="7692" max="7692" width="9" customWidth="1"/>
-    <col min="7693" max="7693" width="17.6640625" customWidth="1"/>
-    <col min="7937" max="7937" width="3.83203125" customWidth="1"/>
-    <col min="7938" max="7938" width="10.1640625" customWidth="1"/>
+    <col min="7693" max="7693" width="17.625" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
     <col min="7939" max="7939" width="7" customWidth="1"/>
-    <col min="7940" max="7940" width="12.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" customWidth="1"/>
     <col min="7941" max="7941" width="21" customWidth="1"/>
-    <col min="7942" max="7942" width="9.1640625" customWidth="1"/>
-    <col min="7943" max="7943" width="82.1640625" customWidth="1"/>
-    <col min="7944" max="7944" width="25.6640625" customWidth="1"/>
-    <col min="7945" max="7945" width="13.6640625" customWidth="1"/>
-    <col min="7946" max="7946" width="9.83203125" customWidth="1"/>
-    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.125" customWidth="1"/>
+    <col min="7944" max="7944" width="25.625" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
     <col min="7948" max="7948" width="9" customWidth="1"/>
-    <col min="7949" max="7949" width="17.6640625" customWidth="1"/>
-    <col min="8193" max="8193" width="3.83203125" customWidth="1"/>
-    <col min="8194" max="8194" width="10.1640625" customWidth="1"/>
+    <col min="7949" max="7949" width="17.625" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
     <col min="8195" max="8195" width="7" customWidth="1"/>
-    <col min="8196" max="8196" width="12.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" customWidth="1"/>
     <col min="8197" max="8197" width="21" customWidth="1"/>
-    <col min="8198" max="8198" width="9.1640625" customWidth="1"/>
-    <col min="8199" max="8199" width="82.1640625" customWidth="1"/>
-    <col min="8200" max="8200" width="25.6640625" customWidth="1"/>
-    <col min="8201" max="8201" width="13.6640625" customWidth="1"/>
-    <col min="8202" max="8202" width="9.83203125" customWidth="1"/>
-    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.125" customWidth="1"/>
+    <col min="8200" max="8200" width="25.625" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
     <col min="8204" max="8204" width="9" customWidth="1"/>
-    <col min="8205" max="8205" width="17.6640625" customWidth="1"/>
-    <col min="8449" max="8449" width="3.83203125" customWidth="1"/>
-    <col min="8450" max="8450" width="10.1640625" customWidth="1"/>
+    <col min="8205" max="8205" width="17.625" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
     <col min="8451" max="8451" width="7" customWidth="1"/>
-    <col min="8452" max="8452" width="12.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" customWidth="1"/>
     <col min="8453" max="8453" width="21" customWidth="1"/>
-    <col min="8454" max="8454" width="9.1640625" customWidth="1"/>
-    <col min="8455" max="8455" width="82.1640625" customWidth="1"/>
-    <col min="8456" max="8456" width="25.6640625" customWidth="1"/>
-    <col min="8457" max="8457" width="13.6640625" customWidth="1"/>
-    <col min="8458" max="8458" width="9.83203125" customWidth="1"/>
-    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.125" customWidth="1"/>
+    <col min="8456" max="8456" width="25.625" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
     <col min="8460" max="8460" width="9" customWidth="1"/>
-    <col min="8461" max="8461" width="17.6640625" customWidth="1"/>
-    <col min="8705" max="8705" width="3.83203125" customWidth="1"/>
-    <col min="8706" max="8706" width="10.1640625" customWidth="1"/>
+    <col min="8461" max="8461" width="17.625" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
     <col min="8707" max="8707" width="7" customWidth="1"/>
-    <col min="8708" max="8708" width="12.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" customWidth="1"/>
     <col min="8709" max="8709" width="21" customWidth="1"/>
-    <col min="8710" max="8710" width="9.1640625" customWidth="1"/>
-    <col min="8711" max="8711" width="82.1640625" customWidth="1"/>
-    <col min="8712" max="8712" width="25.6640625" customWidth="1"/>
-    <col min="8713" max="8713" width="13.6640625" customWidth="1"/>
-    <col min="8714" max="8714" width="9.83203125" customWidth="1"/>
-    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.125" customWidth="1"/>
+    <col min="8712" max="8712" width="25.625" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
     <col min="8716" max="8716" width="9" customWidth="1"/>
-    <col min="8717" max="8717" width="17.6640625" customWidth="1"/>
-    <col min="8961" max="8961" width="3.83203125" customWidth="1"/>
-    <col min="8962" max="8962" width="10.1640625" customWidth="1"/>
+    <col min="8717" max="8717" width="17.625" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
     <col min="8963" max="8963" width="7" customWidth="1"/>
-    <col min="8964" max="8964" width="12.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" customWidth="1"/>
     <col min="8965" max="8965" width="21" customWidth="1"/>
-    <col min="8966" max="8966" width="9.1640625" customWidth="1"/>
-    <col min="8967" max="8967" width="82.1640625" customWidth="1"/>
-    <col min="8968" max="8968" width="25.6640625" customWidth="1"/>
-    <col min="8969" max="8969" width="13.6640625" customWidth="1"/>
-    <col min="8970" max="8970" width="9.83203125" customWidth="1"/>
-    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.125" customWidth="1"/>
+    <col min="8968" max="8968" width="25.625" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
     <col min="8972" max="8972" width="9" customWidth="1"/>
-    <col min="8973" max="8973" width="17.6640625" customWidth="1"/>
-    <col min="9217" max="9217" width="3.83203125" customWidth="1"/>
-    <col min="9218" max="9218" width="10.1640625" customWidth="1"/>
+    <col min="8973" max="8973" width="17.625" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
     <col min="9219" max="9219" width="7" customWidth="1"/>
-    <col min="9220" max="9220" width="12.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" customWidth="1"/>
     <col min="9221" max="9221" width="21" customWidth="1"/>
-    <col min="9222" max="9222" width="9.1640625" customWidth="1"/>
-    <col min="9223" max="9223" width="82.1640625" customWidth="1"/>
-    <col min="9224" max="9224" width="25.6640625" customWidth="1"/>
-    <col min="9225" max="9225" width="13.6640625" customWidth="1"/>
-    <col min="9226" max="9226" width="9.83203125" customWidth="1"/>
-    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.125" customWidth="1"/>
+    <col min="9224" max="9224" width="25.625" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
     <col min="9228" max="9228" width="9" customWidth="1"/>
-    <col min="9229" max="9229" width="17.6640625" customWidth="1"/>
-    <col min="9473" max="9473" width="3.83203125" customWidth="1"/>
-    <col min="9474" max="9474" width="10.1640625" customWidth="1"/>
+    <col min="9229" max="9229" width="17.625" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
     <col min="9475" max="9475" width="7" customWidth="1"/>
-    <col min="9476" max="9476" width="12.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" customWidth="1"/>
     <col min="9477" max="9477" width="21" customWidth="1"/>
-    <col min="9478" max="9478" width="9.1640625" customWidth="1"/>
-    <col min="9479" max="9479" width="82.1640625" customWidth="1"/>
-    <col min="9480" max="9480" width="25.6640625" customWidth="1"/>
-    <col min="9481" max="9481" width="13.6640625" customWidth="1"/>
-    <col min="9482" max="9482" width="9.83203125" customWidth="1"/>
-    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.125" customWidth="1"/>
+    <col min="9480" max="9480" width="25.625" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
     <col min="9484" max="9484" width="9" customWidth="1"/>
-    <col min="9485" max="9485" width="17.6640625" customWidth="1"/>
-    <col min="9729" max="9729" width="3.83203125" customWidth="1"/>
-    <col min="9730" max="9730" width="10.1640625" customWidth="1"/>
+    <col min="9485" max="9485" width="17.625" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
     <col min="9731" max="9731" width="7" customWidth="1"/>
-    <col min="9732" max="9732" width="12.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" customWidth="1"/>
     <col min="9733" max="9733" width="21" customWidth="1"/>
-    <col min="9734" max="9734" width="9.1640625" customWidth="1"/>
-    <col min="9735" max="9735" width="82.1640625" customWidth="1"/>
-    <col min="9736" max="9736" width="25.6640625" customWidth="1"/>
-    <col min="9737" max="9737" width="13.6640625" customWidth="1"/>
-    <col min="9738" max="9738" width="9.83203125" customWidth="1"/>
-    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.125" customWidth="1"/>
+    <col min="9736" max="9736" width="25.625" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
     <col min="9740" max="9740" width="9" customWidth="1"/>
-    <col min="9741" max="9741" width="17.6640625" customWidth="1"/>
-    <col min="9985" max="9985" width="3.83203125" customWidth="1"/>
-    <col min="9986" max="9986" width="10.1640625" customWidth="1"/>
+    <col min="9741" max="9741" width="17.625" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
     <col min="9987" max="9987" width="7" customWidth="1"/>
-    <col min="9988" max="9988" width="12.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" customWidth="1"/>
     <col min="9989" max="9989" width="21" customWidth="1"/>
-    <col min="9990" max="9990" width="9.1640625" customWidth="1"/>
-    <col min="9991" max="9991" width="82.1640625" customWidth="1"/>
-    <col min="9992" max="9992" width="25.6640625" customWidth="1"/>
-    <col min="9993" max="9993" width="13.6640625" customWidth="1"/>
-    <col min="9994" max="9994" width="9.83203125" customWidth="1"/>
-    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.125" customWidth="1"/>
+    <col min="9992" max="9992" width="25.625" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
     <col min="9996" max="9996" width="9" customWidth="1"/>
-    <col min="9997" max="9997" width="17.6640625" customWidth="1"/>
-    <col min="10241" max="10241" width="3.83203125" customWidth="1"/>
-    <col min="10242" max="10242" width="10.1640625" customWidth="1"/>
+    <col min="9997" max="9997" width="17.625" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
     <col min="10243" max="10243" width="7" customWidth="1"/>
-    <col min="10244" max="10244" width="12.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" customWidth="1"/>
     <col min="10245" max="10245" width="21" customWidth="1"/>
-    <col min="10246" max="10246" width="9.1640625" customWidth="1"/>
-    <col min="10247" max="10247" width="82.1640625" customWidth="1"/>
-    <col min="10248" max="10248" width="25.6640625" customWidth="1"/>
-    <col min="10249" max="10249" width="13.6640625" customWidth="1"/>
-    <col min="10250" max="10250" width="9.83203125" customWidth="1"/>
-    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.125" customWidth="1"/>
+    <col min="10248" max="10248" width="25.625" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
     <col min="10252" max="10252" width="9" customWidth="1"/>
-    <col min="10253" max="10253" width="17.6640625" customWidth="1"/>
-    <col min="10497" max="10497" width="3.83203125" customWidth="1"/>
-    <col min="10498" max="10498" width="10.1640625" customWidth="1"/>
+    <col min="10253" max="10253" width="17.625" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
     <col min="10499" max="10499" width="7" customWidth="1"/>
-    <col min="10500" max="10500" width="12.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" customWidth="1"/>
     <col min="10501" max="10501" width="21" customWidth="1"/>
-    <col min="10502" max="10502" width="9.1640625" customWidth="1"/>
-    <col min="10503" max="10503" width="82.1640625" customWidth="1"/>
-    <col min="10504" max="10504" width="25.6640625" customWidth="1"/>
-    <col min="10505" max="10505" width="13.6640625" customWidth="1"/>
-    <col min="10506" max="10506" width="9.83203125" customWidth="1"/>
-    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.125" customWidth="1"/>
+    <col min="10504" max="10504" width="25.625" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
     <col min="10508" max="10508" width="9" customWidth="1"/>
-    <col min="10509" max="10509" width="17.6640625" customWidth="1"/>
-    <col min="10753" max="10753" width="3.83203125" customWidth="1"/>
-    <col min="10754" max="10754" width="10.1640625" customWidth="1"/>
+    <col min="10509" max="10509" width="17.625" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
     <col min="10755" max="10755" width="7" customWidth="1"/>
-    <col min="10756" max="10756" width="12.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" customWidth="1"/>
     <col min="10757" max="10757" width="21" customWidth="1"/>
-    <col min="10758" max="10758" width="9.1640625" customWidth="1"/>
-    <col min="10759" max="10759" width="82.1640625" customWidth="1"/>
-    <col min="10760" max="10760" width="25.6640625" customWidth="1"/>
-    <col min="10761" max="10761" width="13.6640625" customWidth="1"/>
-    <col min="10762" max="10762" width="9.83203125" customWidth="1"/>
-    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.125" customWidth="1"/>
+    <col min="10760" max="10760" width="25.625" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
     <col min="10764" max="10764" width="9" customWidth="1"/>
-    <col min="10765" max="10765" width="17.6640625" customWidth="1"/>
-    <col min="11009" max="11009" width="3.83203125" customWidth="1"/>
-    <col min="11010" max="11010" width="10.1640625" customWidth="1"/>
+    <col min="10765" max="10765" width="17.625" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
     <col min="11011" max="11011" width="7" customWidth="1"/>
-    <col min="11012" max="11012" width="12.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" customWidth="1"/>
     <col min="11013" max="11013" width="21" customWidth="1"/>
-    <col min="11014" max="11014" width="9.1640625" customWidth="1"/>
-    <col min="11015" max="11015" width="82.1640625" customWidth="1"/>
-    <col min="11016" max="11016" width="25.6640625" customWidth="1"/>
-    <col min="11017" max="11017" width="13.6640625" customWidth="1"/>
-    <col min="11018" max="11018" width="9.83203125" customWidth="1"/>
-    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.125" customWidth="1"/>
+    <col min="11016" max="11016" width="25.625" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
     <col min="11020" max="11020" width="9" customWidth="1"/>
-    <col min="11021" max="11021" width="17.6640625" customWidth="1"/>
-    <col min="11265" max="11265" width="3.83203125" customWidth="1"/>
-    <col min="11266" max="11266" width="10.1640625" customWidth="1"/>
+    <col min="11021" max="11021" width="17.625" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
     <col min="11267" max="11267" width="7" customWidth="1"/>
-    <col min="11268" max="11268" width="12.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" customWidth="1"/>
     <col min="11269" max="11269" width="21" customWidth="1"/>
-    <col min="11270" max="11270" width="9.1640625" customWidth="1"/>
-    <col min="11271" max="11271" width="82.1640625" customWidth="1"/>
-    <col min="11272" max="11272" width="25.6640625" customWidth="1"/>
-    <col min="11273" max="11273" width="13.6640625" customWidth="1"/>
-    <col min="11274" max="11274" width="9.83203125" customWidth="1"/>
-    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.125" customWidth="1"/>
+    <col min="11272" max="11272" width="25.625" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
     <col min="11276" max="11276" width="9" customWidth="1"/>
-    <col min="11277" max="11277" width="17.6640625" customWidth="1"/>
-    <col min="11521" max="11521" width="3.83203125" customWidth="1"/>
-    <col min="11522" max="11522" width="10.1640625" customWidth="1"/>
+    <col min="11277" max="11277" width="17.625" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
     <col min="11523" max="11523" width="7" customWidth="1"/>
-    <col min="11524" max="11524" width="12.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" customWidth="1"/>
     <col min="11525" max="11525" width="21" customWidth="1"/>
-    <col min="11526" max="11526" width="9.1640625" customWidth="1"/>
-    <col min="11527" max="11527" width="82.1640625" customWidth="1"/>
-    <col min="11528" max="11528" width="25.6640625" customWidth="1"/>
-    <col min="11529" max="11529" width="13.6640625" customWidth="1"/>
-    <col min="11530" max="11530" width="9.83203125" customWidth="1"/>
-    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.125" customWidth="1"/>
+    <col min="11528" max="11528" width="25.625" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
     <col min="11532" max="11532" width="9" customWidth="1"/>
-    <col min="11533" max="11533" width="17.6640625" customWidth="1"/>
-    <col min="11777" max="11777" width="3.83203125" customWidth="1"/>
-    <col min="11778" max="11778" width="10.1640625" customWidth="1"/>
+    <col min="11533" max="11533" width="17.625" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
     <col min="11779" max="11779" width="7" customWidth="1"/>
-    <col min="11780" max="11780" width="12.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" customWidth="1"/>
     <col min="11781" max="11781" width="21" customWidth="1"/>
-    <col min="11782" max="11782" width="9.1640625" customWidth="1"/>
-    <col min="11783" max="11783" width="82.1640625" customWidth="1"/>
-    <col min="11784" max="11784" width="25.6640625" customWidth="1"/>
-    <col min="11785" max="11785" width="13.6640625" customWidth="1"/>
-    <col min="11786" max="11786" width="9.83203125" customWidth="1"/>
-    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.125" customWidth="1"/>
+    <col min="11784" max="11784" width="25.625" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
     <col min="11788" max="11788" width="9" customWidth="1"/>
-    <col min="11789" max="11789" width="17.6640625" customWidth="1"/>
-    <col min="12033" max="12033" width="3.83203125" customWidth="1"/>
-    <col min="12034" max="12034" width="10.1640625" customWidth="1"/>
+    <col min="11789" max="11789" width="17.625" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
     <col min="12035" max="12035" width="7" customWidth="1"/>
-    <col min="12036" max="12036" width="12.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" customWidth="1"/>
     <col min="12037" max="12037" width="21" customWidth="1"/>
-    <col min="12038" max="12038" width="9.1640625" customWidth="1"/>
-    <col min="12039" max="12039" width="82.1640625" customWidth="1"/>
-    <col min="12040" max="12040" width="25.6640625" customWidth="1"/>
-    <col min="12041" max="12041" width="13.6640625" customWidth="1"/>
-    <col min="12042" max="12042" width="9.83203125" customWidth="1"/>
-    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.125" customWidth="1"/>
+    <col min="12040" max="12040" width="25.625" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
     <col min="12044" max="12044" width="9" customWidth="1"/>
-    <col min="12045" max="12045" width="17.6640625" customWidth="1"/>
-    <col min="12289" max="12289" width="3.83203125" customWidth="1"/>
-    <col min="12290" max="12290" width="10.1640625" customWidth="1"/>
+    <col min="12045" max="12045" width="17.625" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
     <col min="12291" max="12291" width="7" customWidth="1"/>
-    <col min="12292" max="12292" width="12.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" customWidth="1"/>
     <col min="12293" max="12293" width="21" customWidth="1"/>
-    <col min="12294" max="12294" width="9.1640625" customWidth="1"/>
-    <col min="12295" max="12295" width="82.1640625" customWidth="1"/>
-    <col min="12296" max="12296" width="25.6640625" customWidth="1"/>
-    <col min="12297" max="12297" width="13.6640625" customWidth="1"/>
-    <col min="12298" max="12298" width="9.83203125" customWidth="1"/>
-    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.125" customWidth="1"/>
+    <col min="12296" max="12296" width="25.625" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
     <col min="12300" max="12300" width="9" customWidth="1"/>
-    <col min="12301" max="12301" width="17.6640625" customWidth="1"/>
-    <col min="12545" max="12545" width="3.83203125" customWidth="1"/>
-    <col min="12546" max="12546" width="10.1640625" customWidth="1"/>
+    <col min="12301" max="12301" width="17.625" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
     <col min="12547" max="12547" width="7" customWidth="1"/>
-    <col min="12548" max="12548" width="12.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" customWidth="1"/>
     <col min="12549" max="12549" width="21" customWidth="1"/>
-    <col min="12550" max="12550" width="9.1640625" customWidth="1"/>
-    <col min="12551" max="12551" width="82.1640625" customWidth="1"/>
-    <col min="12552" max="12552" width="25.6640625" customWidth="1"/>
-    <col min="12553" max="12553" width="13.6640625" customWidth="1"/>
-    <col min="12554" max="12554" width="9.83203125" customWidth="1"/>
-    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.125" customWidth="1"/>
+    <col min="12552" max="12552" width="25.625" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
     <col min="12556" max="12556" width="9" customWidth="1"/>
-    <col min="12557" max="12557" width="17.6640625" customWidth="1"/>
-    <col min="12801" max="12801" width="3.83203125" customWidth="1"/>
-    <col min="12802" max="12802" width="10.1640625" customWidth="1"/>
+    <col min="12557" max="12557" width="17.625" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
     <col min="12803" max="12803" width="7" customWidth="1"/>
-    <col min="12804" max="12804" width="12.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" customWidth="1"/>
     <col min="12805" max="12805" width="21" customWidth="1"/>
-    <col min="12806" max="12806" width="9.1640625" customWidth="1"/>
-    <col min="12807" max="12807" width="82.1640625" customWidth="1"/>
-    <col min="12808" max="12808" width="25.6640625" customWidth="1"/>
-    <col min="12809" max="12809" width="13.6640625" customWidth="1"/>
-    <col min="12810" max="12810" width="9.83203125" customWidth="1"/>
-    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.125" customWidth="1"/>
+    <col min="12808" max="12808" width="25.625" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
     <col min="12812" max="12812" width="9" customWidth="1"/>
-    <col min="12813" max="12813" width="17.6640625" customWidth="1"/>
-    <col min="13057" max="13057" width="3.83203125" customWidth="1"/>
-    <col min="13058" max="13058" width="10.1640625" customWidth="1"/>
+    <col min="12813" max="12813" width="17.625" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
     <col min="13059" max="13059" width="7" customWidth="1"/>
-    <col min="13060" max="13060" width="12.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" customWidth="1"/>
     <col min="13061" max="13061" width="21" customWidth="1"/>
-    <col min="13062" max="13062" width="9.1640625" customWidth="1"/>
-    <col min="13063" max="13063" width="82.1640625" customWidth="1"/>
-    <col min="13064" max="13064" width="25.6640625" customWidth="1"/>
-    <col min="13065" max="13065" width="13.6640625" customWidth="1"/>
-    <col min="13066" max="13066" width="9.83203125" customWidth="1"/>
-    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.125" customWidth="1"/>
+    <col min="13064" max="13064" width="25.625" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
     <col min="13068" max="13068" width="9" customWidth="1"/>
-    <col min="13069" max="13069" width="17.6640625" customWidth="1"/>
-    <col min="13313" max="13313" width="3.83203125" customWidth="1"/>
-    <col min="13314" max="13314" width="10.1640625" customWidth="1"/>
+    <col min="13069" max="13069" width="17.625" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
     <col min="13315" max="13315" width="7" customWidth="1"/>
-    <col min="13316" max="13316" width="12.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" customWidth="1"/>
     <col min="13317" max="13317" width="21" customWidth="1"/>
-    <col min="13318" max="13318" width="9.1640625" customWidth="1"/>
-    <col min="13319" max="13319" width="82.1640625" customWidth="1"/>
-    <col min="13320" max="13320" width="25.6640625" customWidth="1"/>
-    <col min="13321" max="13321" width="13.6640625" customWidth="1"/>
-    <col min="13322" max="13322" width="9.83203125" customWidth="1"/>
-    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.125" customWidth="1"/>
+    <col min="13320" max="13320" width="25.625" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
     <col min="13324" max="13324" width="9" customWidth="1"/>
-    <col min="13325" max="13325" width="17.6640625" customWidth="1"/>
-    <col min="13569" max="13569" width="3.83203125" customWidth="1"/>
-    <col min="13570" max="13570" width="10.1640625" customWidth="1"/>
+    <col min="13325" max="13325" width="17.625" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
     <col min="13571" max="13571" width="7" customWidth="1"/>
-    <col min="13572" max="13572" width="12.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" customWidth="1"/>
     <col min="13573" max="13573" width="21" customWidth="1"/>
-    <col min="13574" max="13574" width="9.1640625" customWidth="1"/>
-    <col min="13575" max="13575" width="82.1640625" customWidth="1"/>
-    <col min="13576" max="13576" width="25.6640625" customWidth="1"/>
-    <col min="13577" max="13577" width="13.6640625" customWidth="1"/>
-    <col min="13578" max="13578" width="9.83203125" customWidth="1"/>
-    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.125" customWidth="1"/>
+    <col min="13576" max="13576" width="25.625" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
     <col min="13580" max="13580" width="9" customWidth="1"/>
-    <col min="13581" max="13581" width="17.6640625" customWidth="1"/>
-    <col min="13825" max="13825" width="3.83203125" customWidth="1"/>
-    <col min="13826" max="13826" width="10.1640625" customWidth="1"/>
+    <col min="13581" max="13581" width="17.625" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
     <col min="13827" max="13827" width="7" customWidth="1"/>
-    <col min="13828" max="13828" width="12.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" customWidth="1"/>
     <col min="13829" max="13829" width="21" customWidth="1"/>
-    <col min="13830" max="13830" width="9.1640625" customWidth="1"/>
-    <col min="13831" max="13831" width="82.1640625" customWidth="1"/>
-    <col min="13832" max="13832" width="25.6640625" customWidth="1"/>
-    <col min="13833" max="13833" width="13.6640625" customWidth="1"/>
-    <col min="13834" max="13834" width="9.83203125" customWidth="1"/>
-    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.125" customWidth="1"/>
+    <col min="13832" max="13832" width="25.625" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
     <col min="13836" max="13836" width="9" customWidth="1"/>
-    <col min="13837" max="13837" width="17.6640625" customWidth="1"/>
-    <col min="14081" max="14081" width="3.83203125" customWidth="1"/>
-    <col min="14082" max="14082" width="10.1640625" customWidth="1"/>
+    <col min="13837" max="13837" width="17.625" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
     <col min="14083" max="14083" width="7" customWidth="1"/>
-    <col min="14084" max="14084" width="12.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" customWidth="1"/>
     <col min="14085" max="14085" width="21" customWidth="1"/>
-    <col min="14086" max="14086" width="9.1640625" customWidth="1"/>
-    <col min="14087" max="14087" width="82.1640625" customWidth="1"/>
-    <col min="14088" max="14088" width="25.6640625" customWidth="1"/>
-    <col min="14089" max="14089" width="13.6640625" customWidth="1"/>
-    <col min="14090" max="14090" width="9.83203125" customWidth="1"/>
-    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.125" customWidth="1"/>
+    <col min="14088" max="14088" width="25.625" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
     <col min="14092" max="14092" width="9" customWidth="1"/>
-    <col min="14093" max="14093" width="17.6640625" customWidth="1"/>
-    <col min="14337" max="14337" width="3.83203125" customWidth="1"/>
-    <col min="14338" max="14338" width="10.1640625" customWidth="1"/>
+    <col min="14093" max="14093" width="17.625" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
     <col min="14339" max="14339" width="7" customWidth="1"/>
-    <col min="14340" max="14340" width="12.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" customWidth="1"/>
     <col min="14341" max="14341" width="21" customWidth="1"/>
-    <col min="14342" max="14342" width="9.1640625" customWidth="1"/>
-    <col min="14343" max="14343" width="82.1640625" customWidth="1"/>
-    <col min="14344" max="14344" width="25.6640625" customWidth="1"/>
-    <col min="14345" max="14345" width="13.6640625" customWidth="1"/>
-    <col min="14346" max="14346" width="9.83203125" customWidth="1"/>
-    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.125" customWidth="1"/>
+    <col min="14344" max="14344" width="25.625" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
     <col min="14348" max="14348" width="9" customWidth="1"/>
-    <col min="14349" max="14349" width="17.6640625" customWidth="1"/>
-    <col min="14593" max="14593" width="3.83203125" customWidth="1"/>
-    <col min="14594" max="14594" width="10.1640625" customWidth="1"/>
+    <col min="14349" max="14349" width="17.625" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
     <col min="14595" max="14595" width="7" customWidth="1"/>
-    <col min="14596" max="14596" width="12.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" customWidth="1"/>
     <col min="14597" max="14597" width="21" customWidth="1"/>
-    <col min="14598" max="14598" width="9.1640625" customWidth="1"/>
-    <col min="14599" max="14599" width="82.1640625" customWidth="1"/>
-    <col min="14600" max="14600" width="25.6640625" customWidth="1"/>
-    <col min="14601" max="14601" width="13.6640625" customWidth="1"/>
-    <col min="14602" max="14602" width="9.83203125" customWidth="1"/>
-    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.125" customWidth="1"/>
+    <col min="14600" max="14600" width="25.625" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
     <col min="14604" max="14604" width="9" customWidth="1"/>
-    <col min="14605" max="14605" width="17.6640625" customWidth="1"/>
-    <col min="14849" max="14849" width="3.83203125" customWidth="1"/>
-    <col min="14850" max="14850" width="10.1640625" customWidth="1"/>
+    <col min="14605" max="14605" width="17.625" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
     <col min="14851" max="14851" width="7" customWidth="1"/>
-    <col min="14852" max="14852" width="12.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" customWidth="1"/>
     <col min="14853" max="14853" width="21" customWidth="1"/>
-    <col min="14854" max="14854" width="9.1640625" customWidth="1"/>
-    <col min="14855" max="14855" width="82.1640625" customWidth="1"/>
-    <col min="14856" max="14856" width="25.6640625" customWidth="1"/>
-    <col min="14857" max="14857" width="13.6640625" customWidth="1"/>
-    <col min="14858" max="14858" width="9.83203125" customWidth="1"/>
-    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.125" customWidth="1"/>
+    <col min="14856" max="14856" width="25.625" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
     <col min="14860" max="14860" width="9" customWidth="1"/>
-    <col min="14861" max="14861" width="17.6640625" customWidth="1"/>
-    <col min="15105" max="15105" width="3.83203125" customWidth="1"/>
-    <col min="15106" max="15106" width="10.1640625" customWidth="1"/>
+    <col min="14861" max="14861" width="17.625" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
     <col min="15107" max="15107" width="7" customWidth="1"/>
-    <col min="15108" max="15108" width="12.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" customWidth="1"/>
     <col min="15109" max="15109" width="21" customWidth="1"/>
-    <col min="15110" max="15110" width="9.1640625" customWidth="1"/>
-    <col min="15111" max="15111" width="82.1640625" customWidth="1"/>
-    <col min="15112" max="15112" width="25.6640625" customWidth="1"/>
-    <col min="15113" max="15113" width="13.6640625" customWidth="1"/>
-    <col min="15114" max="15114" width="9.83203125" customWidth="1"/>
-    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.125" customWidth="1"/>
+    <col min="15112" max="15112" width="25.625" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
     <col min="15116" max="15116" width="9" customWidth="1"/>
-    <col min="15117" max="15117" width="17.6640625" customWidth="1"/>
-    <col min="15361" max="15361" width="3.83203125" customWidth="1"/>
-    <col min="15362" max="15362" width="10.1640625" customWidth="1"/>
+    <col min="15117" max="15117" width="17.625" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
     <col min="15363" max="15363" width="7" customWidth="1"/>
-    <col min="15364" max="15364" width="12.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" customWidth="1"/>
     <col min="15365" max="15365" width="21" customWidth="1"/>
-    <col min="15366" max="15366" width="9.1640625" customWidth="1"/>
-    <col min="15367" max="15367" width="82.1640625" customWidth="1"/>
-    <col min="15368" max="15368" width="25.6640625" customWidth="1"/>
-    <col min="15369" max="15369" width="13.6640625" customWidth="1"/>
-    <col min="15370" max="15370" width="9.83203125" customWidth="1"/>
-    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.125" customWidth="1"/>
+    <col min="15368" max="15368" width="25.625" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
     <col min="15372" max="15372" width="9" customWidth="1"/>
-    <col min="15373" max="15373" width="17.6640625" customWidth="1"/>
-    <col min="15617" max="15617" width="3.83203125" customWidth="1"/>
-    <col min="15618" max="15618" width="10.1640625" customWidth="1"/>
+    <col min="15373" max="15373" width="17.625" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
     <col min="15619" max="15619" width="7" customWidth="1"/>
-    <col min="15620" max="15620" width="12.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" customWidth="1"/>
     <col min="15621" max="15621" width="21" customWidth="1"/>
-    <col min="15622" max="15622" width="9.1640625" customWidth="1"/>
-    <col min="15623" max="15623" width="82.1640625" customWidth="1"/>
-    <col min="15624" max="15624" width="25.6640625" customWidth="1"/>
-    <col min="15625" max="15625" width="13.6640625" customWidth="1"/>
-    <col min="15626" max="15626" width="9.83203125" customWidth="1"/>
-    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.125" customWidth="1"/>
+    <col min="15624" max="15624" width="25.625" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
     <col min="15628" max="15628" width="9" customWidth="1"/>
-    <col min="15629" max="15629" width="17.6640625" customWidth="1"/>
-    <col min="15873" max="15873" width="3.83203125" customWidth="1"/>
-    <col min="15874" max="15874" width="10.1640625" customWidth="1"/>
+    <col min="15629" max="15629" width="17.625" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
     <col min="15875" max="15875" width="7" customWidth="1"/>
-    <col min="15876" max="15876" width="12.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" customWidth="1"/>
     <col min="15877" max="15877" width="21" customWidth="1"/>
-    <col min="15878" max="15878" width="9.1640625" customWidth="1"/>
-    <col min="15879" max="15879" width="82.1640625" customWidth="1"/>
-    <col min="15880" max="15880" width="25.6640625" customWidth="1"/>
-    <col min="15881" max="15881" width="13.6640625" customWidth="1"/>
-    <col min="15882" max="15882" width="9.83203125" customWidth="1"/>
-    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.125" customWidth="1"/>
+    <col min="15880" max="15880" width="25.625" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
     <col min="15884" max="15884" width="9" customWidth="1"/>
-    <col min="15885" max="15885" width="17.6640625" customWidth="1"/>
-    <col min="16129" max="16129" width="3.83203125" customWidth="1"/>
-    <col min="16130" max="16130" width="10.1640625" customWidth="1"/>
+    <col min="15885" max="15885" width="17.625" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
     <col min="16131" max="16131" width="7" customWidth="1"/>
-    <col min="16132" max="16132" width="12.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" customWidth="1"/>
     <col min="16133" max="16133" width="21" customWidth="1"/>
-    <col min="16134" max="16134" width="9.1640625" customWidth="1"/>
-    <col min="16135" max="16135" width="82.1640625" customWidth="1"/>
-    <col min="16136" max="16136" width="25.6640625" customWidth="1"/>
-    <col min="16137" max="16137" width="13.6640625" customWidth="1"/>
-    <col min="16138" max="16138" width="9.83203125" customWidth="1"/>
-    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.125" customWidth="1"/>
+    <col min="16136" max="16136" width="25.625" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
     <col min="16140" max="16140" width="9" customWidth="1"/>
-    <col min="16141" max="16141" width="17.6640625" customWidth="1"/>
+    <col min="16141" max="16141" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="108"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">
         <v>32</v>
       </c>
@@ -8316,8 +8351,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="75">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -8355,22 +8390,48 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="75">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="75"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8385,7 +8446,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="75"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8400,7 +8461,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="75"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8415,7 +8476,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="75"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8430,7 +8491,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="75"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8445,7 +8506,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="75"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8460,7 +8521,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="75"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8475,7 +8536,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="75"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8510,22 +8571,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
